--- a/backend/uploads/cp_citizenship_1760291279356.xlsx
+++ b/backend/uploads/cp_citizenship_1760291279356.xlsx
@@ -1191,10 +1191,10 @@
         <v/>
       </c>
       <c r="F10" t="str">
-        <v/>
+        <v>3</v>
       </c>
       <c r="G10" t="str">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H10" t="str">
         <v/>
@@ -1270,10 +1270,10 @@
         <v/>
       </c>
       <c r="F11" t="str">
-        <v/>
+        <v>3</v>
       </c>
       <c r="G11" t="str">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H11" t="str">
         <v/>
@@ -1432,10 +1432,10 @@
         <v/>
       </c>
       <c r="F13" t="str">
-        <v/>
+        <v>2</v>
       </c>
       <c r="G13" t="str">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H13" t="str">
         <v/>
@@ -1509,10 +1509,10 @@
         <v/>
       </c>
       <c r="F14" t="str">
-        <v/>
+        <v>2</v>
       </c>
       <c r="G14" t="str">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H14" t="str">
         <v/>
@@ -2214,7 +2214,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y1007"/>
+  <dimension ref="A1:Y22"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2223,21 +2223,309 @@
       <c r="A1" t="str">
         <v>ALUR TUJUAN PEMBELAJARAN</v>
       </c>
+      <c r="B1" t="str">
+        <v/>
+      </c>
+      <c r="C1" t="str">
+        <v/>
+      </c>
+      <c r="D1" t="str">
+        <v/>
+      </c>
+      <c r="E1" t="str">
+        <v/>
+      </c>
+      <c r="F1" t="str">
+        <v/>
+      </c>
+      <c r="G1" t="str">
+        <v/>
+      </c>
+      <c r="H1" t="str">
+        <v/>
+      </c>
+      <c r="I1" t="str">
+        <v/>
+      </c>
+      <c r="J1" t="str">
+        <v/>
+      </c>
+      <c r="K1" t="str">
+        <v/>
+      </c>
+      <c r="L1" t="str">
+        <v/>
+      </c>
+      <c r="M1" t="str">
+        <v/>
+      </c>
+      <c r="N1" t="str">
+        <v/>
+      </c>
+      <c r="O1" t="str">
+        <v/>
+      </c>
+      <c r="P1" t="str">
+        <v/>
+      </c>
+      <c r="Q1" t="str">
+        <v/>
+      </c>
+      <c r="R1" t="str">
+        <v/>
+      </c>
+      <c r="S1" t="str">
+        <v/>
+      </c>
+      <c r="T1" t="str">
+        <v/>
+      </c>
+      <c r="U1" t="str">
+        <v/>
+      </c>
+      <c r="V1" t="str">
+        <v/>
+      </c>
+      <c r="W1" t="str">
+        <v/>
+      </c>
+      <c r="X1" t="str">
+        <v/>
+      </c>
+      <c r="Y1" t="str">
+        <v/>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
         <v>CITIZENSHIP</v>
       </c>
+      <c r="B2" t="str">
+        <v/>
+      </c>
+      <c r="C2" t="str">
+        <v/>
+      </c>
+      <c r="D2" t="str">
+        <v/>
+      </c>
+      <c r="E2" t="str">
+        <v/>
+      </c>
+      <c r="F2" t="str">
+        <v/>
+      </c>
+      <c r="G2" t="str">
+        <v/>
+      </c>
+      <c r="H2" t="str">
+        <v/>
+      </c>
+      <c r="I2" t="str">
+        <v/>
+      </c>
+      <c r="J2" t="str">
+        <v/>
+      </c>
+      <c r="K2" t="str">
+        <v/>
+      </c>
+      <c r="L2" t="str">
+        <v/>
+      </c>
+      <c r="M2" t="str">
+        <v/>
+      </c>
+      <c r="N2" t="str">
+        <v/>
+      </c>
+      <c r="O2" t="str">
+        <v/>
+      </c>
+      <c r="P2" t="str">
+        <v/>
+      </c>
+      <c r="Q2" t="str">
+        <v/>
+      </c>
+      <c r="R2" t="str">
+        <v/>
+      </c>
+      <c r="S2" t="str">
+        <v/>
+      </c>
+      <c r="T2" t="str">
+        <v/>
+      </c>
+      <c r="U2" t="str">
+        <v/>
+      </c>
+      <c r="V2" t="str">
+        <v/>
+      </c>
+      <c r="W2" t="str">
+        <v/>
+      </c>
+      <c r="X2" t="str">
+        <v/>
+      </c>
+      <c r="Y2" t="str">
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
         <v>FASE B</v>
       </c>
+      <c r="B3" t="str">
+        <v/>
+      </c>
+      <c r="C3" t="str">
+        <v/>
+      </c>
+      <c r="D3" t="str">
+        <v/>
+      </c>
+      <c r="E3" t="str">
+        <v/>
+      </c>
+      <c r="F3" t="str">
+        <v/>
+      </c>
+      <c r="G3" t="str">
+        <v/>
+      </c>
+      <c r="H3" t="str">
+        <v/>
+      </c>
+      <c r="I3" t="str">
+        <v/>
+      </c>
+      <c r="J3" t="str">
+        <v/>
+      </c>
+      <c r="K3" t="str">
+        <v/>
+      </c>
+      <c r="L3" t="str">
+        <v/>
+      </c>
+      <c r="M3" t="str">
+        <v/>
+      </c>
+      <c r="N3" t="str">
+        <v/>
+      </c>
+      <c r="O3" t="str">
+        <v/>
+      </c>
+      <c r="P3" t="str">
+        <v/>
+      </c>
+      <c r="Q3" t="str">
+        <v/>
+      </c>
+      <c r="R3" t="str">
+        <v/>
+      </c>
+      <c r="S3" t="str">
+        <v/>
+      </c>
+      <c r="T3" t="str">
+        <v/>
+      </c>
+      <c r="U3" t="str">
+        <v/>
+      </c>
+      <c r="V3" t="str">
+        <v/>
+      </c>
+      <c r="W3" t="str">
+        <v/>
+      </c>
+      <c r="X3" t="str">
+        <v/>
+      </c>
+      <c r="Y3" t="str">
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
         <v>TAHUN AJARAN 2025/2026</v>
       </c>
+      <c r="B4" t="str">
+        <v/>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <v/>
+      </c>
+      <c r="H4" t="str">
+        <v/>
+      </c>
+      <c r="I4" t="str">
+        <v/>
+      </c>
+      <c r="J4" t="str">
+        <v/>
+      </c>
+      <c r="K4" t="str">
+        <v/>
+      </c>
+      <c r="L4" t="str">
+        <v/>
+      </c>
+      <c r="M4" t="str">
+        <v/>
+      </c>
+      <c r="N4" t="str">
+        <v/>
+      </c>
+      <c r="O4" t="str">
+        <v/>
+      </c>
+      <c r="P4" t="str">
+        <v/>
+      </c>
+      <c r="Q4" t="str">
+        <v/>
+      </c>
+      <c r="R4" t="str">
+        <v/>
+      </c>
+      <c r="S4" t="str">
+        <v/>
+      </c>
+      <c r="T4" t="str">
+        <v/>
+      </c>
+      <c r="U4" t="str">
+        <v/>
+      </c>
+      <c r="V4" t="str">
+        <v/>
+      </c>
+      <c r="W4" t="str">
+        <v/>
+      </c>
+      <c r="X4" t="str">
+        <v/>
+      </c>
+      <c r="Y4" t="str">
+        <v/>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -2260,6 +2548,60 @@
       </c>
       <c r="G5" t="str">
         <v>Semester</v>
+      </c>
+      <c r="H5" t="str">
+        <v/>
+      </c>
+      <c r="I5" t="str">
+        <v/>
+      </c>
+      <c r="J5" t="str">
+        <v/>
+      </c>
+      <c r="K5" t="str">
+        <v/>
+      </c>
+      <c r="L5" t="str">
+        <v/>
+      </c>
+      <c r="M5" t="str">
+        <v/>
+      </c>
+      <c r="N5" t="str">
+        <v/>
+      </c>
+      <c r="O5" t="str">
+        <v/>
+      </c>
+      <c r="P5" t="str">
+        <v/>
+      </c>
+      <c r="Q5" t="str">
+        <v/>
+      </c>
+      <c r="R5" t="str">
+        <v/>
+      </c>
+      <c r="S5" t="str">
+        <v/>
+      </c>
+      <c r="T5" t="str">
+        <v/>
+      </c>
+      <c r="U5" t="str">
+        <v/>
+      </c>
+      <c r="V5" t="str">
+        <v/>
+      </c>
+      <c r="W5" t="str">
+        <v/>
+      </c>
+      <c r="X5" t="str">
+        <v/>
+      </c>
+      <c r="Y5" t="str">
+        <v/>
       </c>
     </row>
     <row r="6" xml:space="preserve">
@@ -2291,8 +2633,68 @@
       <c r="G6">
         <v>2</v>
       </c>
+      <c r="H6" t="str">
+        <v/>
+      </c>
+      <c r="I6" t="str">
+        <v/>
+      </c>
+      <c r="J6" t="str">
+        <v/>
+      </c>
+      <c r="K6" t="str">
+        <v/>
+      </c>
+      <c r="L6" t="str">
+        <v/>
+      </c>
+      <c r="M6" t="str">
+        <v/>
+      </c>
+      <c r="N6" t="str">
+        <v/>
+      </c>
+      <c r="O6" t="str">
+        <v/>
+      </c>
+      <c r="P6" t="str">
+        <v/>
+      </c>
+      <c r="Q6" t="str">
+        <v/>
+      </c>
+      <c r="R6" t="str">
+        <v/>
+      </c>
+      <c r="S6" t="str">
+        <v/>
+      </c>
+      <c r="T6" t="str">
+        <v/>
+      </c>
+      <c r="U6" t="str">
+        <v/>
+      </c>
+      <c r="V6" t="str">
+        <v/>
+      </c>
+      <c r="W6" t="str">
+        <v/>
+      </c>
+      <c r="X6" t="str">
+        <v/>
+      </c>
+      <c r="Y6" t="str">
+        <v/>
+      </c>
     </row>
     <row r="7" xml:space="preserve">
+      <c r="A7" t="str">
+        <v/>
+      </c>
+      <c r="B7" t="str">
+        <v>Peserta didik menunjukkan makna sila-sila Pancasila, dan penerapannya dalam kehidupan sehari-hari; mengenal karakter para perumus Pancasila; menunjukkan sikap bangga menjadi anak Indonesia yang memiliki bahasa Indonesia sebagai bahasa persatuan di lingkungan keluarga, sekolah, dan masyarakat.</v>
+      </c>
       <c r="C7" t="str">
         <v>Peserta didik mengenal para perumus Pancasila.</v>
       </c>
@@ -2310,8 +2712,68 @@
       <c r="G7">
         <v>2</v>
       </c>
+      <c r="H7" t="str">
+        <v/>
+      </c>
+      <c r="I7" t="str">
+        <v/>
+      </c>
+      <c r="J7" t="str">
+        <v/>
+      </c>
+      <c r="K7" t="str">
+        <v/>
+      </c>
+      <c r="L7" t="str">
+        <v/>
+      </c>
+      <c r="M7" t="str">
+        <v/>
+      </c>
+      <c r="N7" t="str">
+        <v/>
+      </c>
+      <c r="O7" t="str">
+        <v/>
+      </c>
+      <c r="P7" t="str">
+        <v/>
+      </c>
+      <c r="Q7" t="str">
+        <v/>
+      </c>
+      <c r="R7" t="str">
+        <v/>
+      </c>
+      <c r="S7" t="str">
+        <v/>
+      </c>
+      <c r="T7" t="str">
+        <v/>
+      </c>
+      <c r="U7" t="str">
+        <v/>
+      </c>
+      <c r="V7" t="str">
+        <v/>
+      </c>
+      <c r="W7" t="str">
+        <v/>
+      </c>
+      <c r="X7" t="str">
+        <v/>
+      </c>
+      <c r="Y7" t="str">
+        <v/>
+      </c>
     </row>
     <row r="8" xml:space="preserve">
+      <c r="A8" t="str">
+        <v/>
+      </c>
+      <c r="B8" t="str">
+        <v>Peserta didik menunjukkan makna sila-sila Pancasila, dan penerapannya dalam kehidupan sehari-hari; mengenal karakter para perumus Pancasila; menunjukkan sikap bangga menjadi anak Indonesia yang memiliki bahasa Indonesia sebagai bahasa persatuan di lingkungan keluarga, sekolah, dan masyarakat.</v>
+      </c>
       <c r="C8" t="str">
         <v xml:space="preserve">Peserta didik mengenal karakter para perumus Pancasila. </v>
       </c>
@@ -2332,8 +2794,68 @@
       <c r="G8">
         <v>2</v>
       </c>
+      <c r="H8" t="str">
+        <v/>
+      </c>
+      <c r="I8" t="str">
+        <v/>
+      </c>
+      <c r="J8" t="str">
+        <v/>
+      </c>
+      <c r="K8" t="str">
+        <v/>
+      </c>
+      <c r="L8" t="str">
+        <v/>
+      </c>
+      <c r="M8" t="str">
+        <v/>
+      </c>
+      <c r="N8" t="str">
+        <v/>
+      </c>
+      <c r="O8" t="str">
+        <v/>
+      </c>
+      <c r="P8" t="str">
+        <v/>
+      </c>
+      <c r="Q8" t="str">
+        <v/>
+      </c>
+      <c r="R8" t="str">
+        <v/>
+      </c>
+      <c r="S8" t="str">
+        <v/>
+      </c>
+      <c r="T8" t="str">
+        <v/>
+      </c>
+      <c r="U8" t="str">
+        <v/>
+      </c>
+      <c r="V8" t="str">
+        <v/>
+      </c>
+      <c r="W8" t="str">
+        <v/>
+      </c>
+      <c r="X8" t="str">
+        <v/>
+      </c>
+      <c r="Y8" t="str">
+        <v/>
+      </c>
     </row>
     <row r="9" xml:space="preserve">
+      <c r="A9" t="str">
+        <v/>
+      </c>
+      <c r="B9" t="str">
+        <v>Peserta didik menunjukkan makna sila-sila Pancasila, dan penerapannya dalam kehidupan sehari-hari; mengenal karakter para perumus Pancasila; menunjukkan sikap bangga menjadi anak Indonesia yang memiliki bahasa Indonesia sebagai bahasa persatuan di lingkungan keluarga, sekolah, dan masyarakat.</v>
+      </c>
       <c r="C9" t="str">
         <v>Peserta didik menunjukkan sikap bangga menjadi anak Indonesia yang memiliki bahasa Indonesia sebagai bahasa persatuan di lingkungan keluarga, sekolah, dan masyarakat.</v>
       </c>
@@ -2353,6 +2875,60 @@
       <c r="G9">
         <v>2</v>
       </c>
+      <c r="H9" t="str">
+        <v/>
+      </c>
+      <c r="I9" t="str">
+        <v/>
+      </c>
+      <c r="J9" t="str">
+        <v/>
+      </c>
+      <c r="K9" t="str">
+        <v/>
+      </c>
+      <c r="L9" t="str">
+        <v/>
+      </c>
+      <c r="M9" t="str">
+        <v/>
+      </c>
+      <c r="N9" t="str">
+        <v/>
+      </c>
+      <c r="O9" t="str">
+        <v/>
+      </c>
+      <c r="P9" t="str">
+        <v/>
+      </c>
+      <c r="Q9" t="str">
+        <v/>
+      </c>
+      <c r="R9" t="str">
+        <v/>
+      </c>
+      <c r="S9" t="str">
+        <v/>
+      </c>
+      <c r="T9" t="str">
+        <v/>
+      </c>
+      <c r="U9" t="str">
+        <v/>
+      </c>
+      <c r="V9" t="str">
+        <v/>
+      </c>
+      <c r="W9" t="str">
+        <v/>
+      </c>
+      <c r="X9" t="str">
+        <v/>
+      </c>
+      <c r="Y9" t="str">
+        <v/>
+      </c>
     </row>
     <row r="10" xml:space="preserve">
       <c r="A10" t="str">
@@ -2381,8 +2957,68 @@
       <c r="G10">
         <v>2</v>
       </c>
+      <c r="H10" t="str">
+        <v/>
+      </c>
+      <c r="I10" t="str">
+        <v/>
+      </c>
+      <c r="J10" t="str">
+        <v/>
+      </c>
+      <c r="K10" t="str">
+        <v/>
+      </c>
+      <c r="L10" t="str">
+        <v/>
+      </c>
+      <c r="M10" t="str">
+        <v/>
+      </c>
+      <c r="N10" t="str">
+        <v/>
+      </c>
+      <c r="O10" t="str">
+        <v/>
+      </c>
+      <c r="P10" t="str">
+        <v/>
+      </c>
+      <c r="Q10" t="str">
+        <v/>
+      </c>
+      <c r="R10" t="str">
+        <v/>
+      </c>
+      <c r="S10" t="str">
+        <v/>
+      </c>
+      <c r="T10" t="str">
+        <v/>
+      </c>
+      <c r="U10" t="str">
+        <v/>
+      </c>
+      <c r="V10" t="str">
+        <v/>
+      </c>
+      <c r="W10" t="str">
+        <v/>
+      </c>
+      <c r="X10" t="str">
+        <v/>
+      </c>
+      <c r="Y10" t="str">
+        <v/>
+      </c>
     </row>
     <row r="11" xml:space="preserve">
+      <c r="A11" t="str">
+        <v/>
+      </c>
+      <c r="B11" t="str">
+        <v/>
+      </c>
       <c r="C11" t="str">
         <v>Peserta didik mengidentifikasi dan melaksanakan aturan di lingkungan tempat tinggal.</v>
       </c>
@@ -2393,8 +3029,77 @@
 4. Peserta didik menunjukkan sikap menghargai orang lain di lingkungan tempat tinggal, seperti berbicara sopan dan tidak mengganggu tetangga._x000d_
 5. Peserta didik menunjukkan kepedulian terhadap lingkungan sekitar dengan menjaga kebersihan, ketenangan, dan kerukunan dengan warga sekitar.</v>
       </c>
+      <c r="E11" t="str">
+        <v/>
+      </c>
+      <c r="F11" t="str">
+        <v>3</v>
+      </c>
+      <c r="G11" t="str">
+        <v>2</v>
+      </c>
+      <c r="H11" t="str">
+        <v/>
+      </c>
+      <c r="I11" t="str">
+        <v/>
+      </c>
+      <c r="J11" t="str">
+        <v/>
+      </c>
+      <c r="K11" t="str">
+        <v/>
+      </c>
+      <c r="L11" t="str">
+        <v/>
+      </c>
+      <c r="M11" t="str">
+        <v/>
+      </c>
+      <c r="N11" t="str">
+        <v/>
+      </c>
+      <c r="O11" t="str">
+        <v/>
+      </c>
+      <c r="P11" t="str">
+        <v/>
+      </c>
+      <c r="Q11" t="str">
+        <v/>
+      </c>
+      <c r="R11" t="str">
+        <v/>
+      </c>
+      <c r="S11" t="str">
+        <v/>
+      </c>
+      <c r="T11" t="str">
+        <v/>
+      </c>
+      <c r="U11" t="str">
+        <v/>
+      </c>
+      <c r="V11" t="str">
+        <v/>
+      </c>
+      <c r="W11" t="str">
+        <v/>
+      </c>
+      <c r="X11" t="str">
+        <v/>
+      </c>
+      <c r="Y11" t="str">
+        <v/>
+      </c>
     </row>
     <row r="12" xml:space="preserve">
+      <c r="A12" t="str">
+        <v/>
+      </c>
+      <c r="B12" t="str">
+        <v/>
+      </c>
       <c r="C12" t="str">
         <v>Peserta didik mengidentifikasi dan melaksanakan hak  sebagai anggota keluarga.</v>
       </c>
@@ -2414,8 +3119,68 @@
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12" t="str">
+        <v/>
+      </c>
+      <c r="I12" t="str">
+        <v/>
+      </c>
+      <c r="J12" t="str">
+        <v/>
+      </c>
+      <c r="K12" t="str">
+        <v/>
+      </c>
+      <c r="L12" t="str">
+        <v/>
+      </c>
+      <c r="M12" t="str">
+        <v/>
+      </c>
+      <c r="N12" t="str">
+        <v/>
+      </c>
+      <c r="O12" t="str">
+        <v/>
+      </c>
+      <c r="P12" t="str">
+        <v/>
+      </c>
+      <c r="Q12" t="str">
+        <v/>
+      </c>
+      <c r="R12" t="str">
+        <v/>
+      </c>
+      <c r="S12" t="str">
+        <v/>
+      </c>
+      <c r="T12" t="str">
+        <v/>
+      </c>
+      <c r="U12" t="str">
+        <v/>
+      </c>
+      <c r="V12" t="str">
+        <v/>
+      </c>
+      <c r="W12" t="str">
+        <v/>
+      </c>
+      <c r="X12" t="str">
+        <v/>
+      </c>
+      <c r="Y12" t="str">
+        <v/>
+      </c>
     </row>
     <row r="13" xml:space="preserve">
+      <c r="A13" t="str">
+        <v/>
+      </c>
+      <c r="B13" t="str">
+        <v/>
+      </c>
       <c r="C13" t="str">
         <v>Peserta didik mengidentifikasi dan melaksanakan kewajiban sebagai anggota keluarga dan sebagai warga sekolah.</v>
       </c>
@@ -2429,6 +3194,66 @@
       <c r="E13" t="str">
         <v>Hak dan Kewajiban Sebagai Anggota Warga Sekolah</v>
       </c>
+      <c r="F13" t="str">
+        <v>4</v>
+      </c>
+      <c r="G13" t="str">
+        <v>1</v>
+      </c>
+      <c r="H13" t="str">
+        <v/>
+      </c>
+      <c r="I13" t="str">
+        <v/>
+      </c>
+      <c r="J13" t="str">
+        <v/>
+      </c>
+      <c r="K13" t="str">
+        <v/>
+      </c>
+      <c r="L13" t="str">
+        <v/>
+      </c>
+      <c r="M13" t="str">
+        <v/>
+      </c>
+      <c r="N13" t="str">
+        <v/>
+      </c>
+      <c r="O13" t="str">
+        <v/>
+      </c>
+      <c r="P13" t="str">
+        <v/>
+      </c>
+      <c r="Q13" t="str">
+        <v/>
+      </c>
+      <c r="R13" t="str">
+        <v/>
+      </c>
+      <c r="S13" t="str">
+        <v/>
+      </c>
+      <c r="T13" t="str">
+        <v/>
+      </c>
+      <c r="U13" t="str">
+        <v/>
+      </c>
+      <c r="V13" t="str">
+        <v/>
+      </c>
+      <c r="W13" t="str">
+        <v/>
+      </c>
+      <c r="X13" t="str">
+        <v/>
+      </c>
+      <c r="Y13" t="str">
+        <v/>
+      </c>
     </row>
     <row r="14" xml:space="preserve">
       <c r="A14" t="str">
@@ -2457,8 +3282,68 @@
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14" t="str">
+        <v/>
+      </c>
+      <c r="I14" t="str">
+        <v/>
+      </c>
+      <c r="J14" t="str">
+        <v/>
+      </c>
+      <c r="K14" t="str">
+        <v/>
+      </c>
+      <c r="L14" t="str">
+        <v/>
+      </c>
+      <c r="M14" t="str">
+        <v/>
+      </c>
+      <c r="N14" t="str">
+        <v/>
+      </c>
+      <c r="O14" t="str">
+        <v/>
+      </c>
+      <c r="P14" t="str">
+        <v/>
+      </c>
+      <c r="Q14" t="str">
+        <v/>
+      </c>
+      <c r="R14" t="str">
+        <v/>
+      </c>
+      <c r="S14" t="str">
+        <v/>
+      </c>
+      <c r="T14" t="str">
+        <v/>
+      </c>
+      <c r="U14" t="str">
+        <v/>
+      </c>
+      <c r="V14" t="str">
+        <v/>
+      </c>
+      <c r="W14" t="str">
+        <v/>
+      </c>
+      <c r="X14" t="str">
+        <v/>
+      </c>
+      <c r="Y14" t="str">
+        <v/>
+      </c>
     </row>
     <row r="15" xml:space="preserve">
+      <c r="A15" t="str">
+        <v/>
+      </c>
+      <c r="B15" t="str">
+        <v/>
+      </c>
       <c r="C15" t="str">
         <v>Peserta didik membedakan dan menghargai identitas diri, keluarga, dan teman-temannya sesuai budaya, suku bangsa, bahasa, agama dan kepercayaannya di lingkungan sekolah.</v>
       </c>
@@ -2469,8 +3354,77 @@
 4. Peserta didik menunjukkan sikap menghargai perbedaan identitas dengan cara tidak mengejek, mau bekerja sama, dan berteman tanpa membeda-bedakan._x000d_
 5. Peserta didik menjaga kerukunan di lingkungan sekolah dengan menghormati budaya, bahasa, agama, dan kepercayaan masing-masing teman.</v>
       </c>
+      <c r="E15" t="str">
+        <v/>
+      </c>
+      <c r="F15" t="str">
+        <v>3</v>
+      </c>
+      <c r="G15" t="str">
+        <v>1</v>
+      </c>
+      <c r="H15" t="str">
+        <v/>
+      </c>
+      <c r="I15" t="str">
+        <v/>
+      </c>
+      <c r="J15" t="str">
+        <v/>
+      </c>
+      <c r="K15" t="str">
+        <v/>
+      </c>
+      <c r="L15" t="str">
+        <v/>
+      </c>
+      <c r="M15" t="str">
+        <v/>
+      </c>
+      <c r="N15" t="str">
+        <v/>
+      </c>
+      <c r="O15" t="str">
+        <v/>
+      </c>
+      <c r="P15" t="str">
+        <v/>
+      </c>
+      <c r="Q15" t="str">
+        <v/>
+      </c>
+      <c r="R15" t="str">
+        <v/>
+      </c>
+      <c r="S15" t="str">
+        <v/>
+      </c>
+      <c r="T15" t="str">
+        <v/>
+      </c>
+      <c r="U15" t="str">
+        <v/>
+      </c>
+      <c r="V15" t="str">
+        <v/>
+      </c>
+      <c r="W15" t="str">
+        <v/>
+      </c>
+      <c r="X15" t="str">
+        <v/>
+      </c>
+      <c r="Y15" t="str">
+        <v/>
+      </c>
     </row>
     <row r="16" xml:space="preserve">
+      <c r="A16" t="str">
+        <v/>
+      </c>
+      <c r="B16" t="str">
+        <v/>
+      </c>
       <c r="C16" t="str">
         <v>Peserta didik membedakan dan menghargai identitas diri, keluarga, dan teman-temannya sesuai budaya, suku bangsa, bahasa, agama dan kepercayaannya di lingkungan masyarakat.</v>
       </c>
@@ -2490,6 +3444,60 @@
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16" t="str">
+        <v/>
+      </c>
+      <c r="I16" t="str">
+        <v/>
+      </c>
+      <c r="J16" t="str">
+        <v/>
+      </c>
+      <c r="K16" t="str">
+        <v/>
+      </c>
+      <c r="L16" t="str">
+        <v/>
+      </c>
+      <c r="M16" t="str">
+        <v/>
+      </c>
+      <c r="N16" t="str">
+        <v/>
+      </c>
+      <c r="O16" t="str">
+        <v/>
+      </c>
+      <c r="P16" t="str">
+        <v/>
+      </c>
+      <c r="Q16" t="str">
+        <v/>
+      </c>
+      <c r="R16" t="str">
+        <v/>
+      </c>
+      <c r="S16" t="str">
+        <v/>
+      </c>
+      <c r="T16" t="str">
+        <v/>
+      </c>
+      <c r="U16" t="str">
+        <v/>
+      </c>
+      <c r="V16" t="str">
+        <v/>
+      </c>
+      <c r="W16" t="str">
+        <v/>
+      </c>
+      <c r="X16" t="str">
+        <v/>
+      </c>
+      <c r="Y16" t="str">
+        <v/>
+      </c>
     </row>
     <row r="17" xml:space="preserve">
       <c r="A17" t="str">
@@ -2517,8 +3525,68 @@
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17" t="str">
+        <v/>
+      </c>
+      <c r="I17" t="str">
+        <v/>
+      </c>
+      <c r="J17" t="str">
+        <v/>
+      </c>
+      <c r="K17" t="str">
+        <v/>
+      </c>
+      <c r="L17" t="str">
+        <v/>
+      </c>
+      <c r="M17" t="str">
+        <v/>
+      </c>
+      <c r="N17" t="str">
+        <v/>
+      </c>
+      <c r="O17" t="str">
+        <v/>
+      </c>
+      <c r="P17" t="str">
+        <v/>
+      </c>
+      <c r="Q17" t="str">
+        <v/>
+      </c>
+      <c r="R17" t="str">
+        <v/>
+      </c>
+      <c r="S17" t="str">
+        <v/>
+      </c>
+      <c r="T17" t="str">
+        <v/>
+      </c>
+      <c r="U17" t="str">
+        <v/>
+      </c>
+      <c r="V17" t="str">
+        <v/>
+      </c>
+      <c r="W17" t="str">
+        <v/>
+      </c>
+      <c r="X17" t="str">
+        <v/>
+      </c>
+      <c r="Y17" t="str">
+        <v/>
+      </c>
     </row>
     <row r="18" xml:space="preserve">
+      <c r="A18" t="str">
+        <v/>
+      </c>
+      <c r="B18" t="str">
+        <v/>
+      </c>
       <c r="C18" t="str">
         <v>Peserta didik  menunjukkan sikap kerja sama dalam berbagai bentuk keberagaman suku bangsa, sosial, dan budaya di Indonesia yang terikat persatuan dan kesatuan di lingkungan tempat tinggal.</v>
       </c>
@@ -2539,8 +3607,68 @@
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18" t="str">
+        <v/>
+      </c>
+      <c r="I18" t="str">
+        <v/>
+      </c>
+      <c r="J18" t="str">
+        <v/>
+      </c>
+      <c r="K18" t="str">
+        <v/>
+      </c>
+      <c r="L18" t="str">
+        <v/>
+      </c>
+      <c r="M18" t="str">
+        <v/>
+      </c>
+      <c r="N18" t="str">
+        <v/>
+      </c>
+      <c r="O18" t="str">
+        <v/>
+      </c>
+      <c r="P18" t="str">
+        <v/>
+      </c>
+      <c r="Q18" t="str">
+        <v/>
+      </c>
+      <c r="R18" t="str">
+        <v/>
+      </c>
+      <c r="S18" t="str">
+        <v/>
+      </c>
+      <c r="T18" t="str">
+        <v/>
+      </c>
+      <c r="U18" t="str">
+        <v/>
+      </c>
+      <c r="V18" t="str">
+        <v/>
+      </c>
+      <c r="W18" t="str">
+        <v/>
+      </c>
+      <c r="X18" t="str">
+        <v/>
+      </c>
+      <c r="Y18" t="str">
+        <v/>
+      </c>
     </row>
     <row r="19" xml:space="preserve">
+      <c r="A19" t="str">
+        <v/>
+      </c>
+      <c r="B19" t="str">
+        <v/>
+      </c>
       <c r="C19" t="str">
         <v>Peserta didik  menunjukkan sikap kerja sama dalam berbagai bentuk keberagaman suku bangsa, sosial, dan budaya di Indonesia yang terikat persatuan dan kesatuan di lingkungan sekolah.</v>
       </c>
@@ -2551,66 +3679,311 @@
 4. Peserta didik menjaga sikap sopan dan rukun saat berinteraksi dengan teman dari latar belakang yang beragam._x000d_
 5. Peserta didik aktif ikut serta dalam kegiatan sekolah yang memperkuat persatuan dan kesatuan, seperti upacara bendera, pentas seni, atau lomba 17 Agustus.</v>
       </c>
+      <c r="E19" t="str">
+        <v/>
+      </c>
+      <c r="F19" t="str">
+        <v>3</v>
+      </c>
+      <c r="G19" t="str">
+        <v>1</v>
+      </c>
+      <c r="H19" t="str">
+        <v/>
+      </c>
+      <c r="I19" t="str">
+        <v/>
+      </c>
+      <c r="J19" t="str">
+        <v/>
+      </c>
+      <c r="K19" t="str">
+        <v/>
+      </c>
+      <c r="L19" t="str">
+        <v/>
+      </c>
+      <c r="M19" t="str">
+        <v/>
+      </c>
+      <c r="N19" t="str">
+        <v/>
+      </c>
+      <c r="O19" t="str">
+        <v/>
+      </c>
+      <c r="P19" t="str">
+        <v/>
+      </c>
+      <c r="Q19" t="str">
+        <v/>
+      </c>
+      <c r="R19" t="str">
+        <v/>
+      </c>
+      <c r="S19" t="str">
+        <v/>
+      </c>
+      <c r="T19" t="str">
+        <v/>
+      </c>
+      <c r="U19" t="str">
+        <v/>
+      </c>
+      <c r="V19" t="str">
+        <v/>
+      </c>
+      <c r="W19" t="str">
+        <v/>
+      </c>
+      <c r="X19" t="str">
+        <v/>
+      </c>
+      <c r="Y19" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v/>
+      </c>
+      <c r="B20" t="str">
+        <v>Approved by:</v>
+      </c>
+      <c r="C20" t="str">
+        <v/>
+      </c>
+      <c r="D20" t="str">
+        <v/>
+      </c>
+      <c r="E20" t="str">
+        <v/>
+      </c>
+      <c r="F20" t="str">
+        <v/>
+      </c>
+      <c r="G20" t="str">
+        <v/>
+      </c>
+      <c r="H20" t="str">
+        <v/>
+      </c>
+      <c r="I20" t="str">
+        <v/>
+      </c>
+      <c r="J20" t="str">
+        <v/>
+      </c>
+      <c r="K20" t="str">
+        <v/>
+      </c>
+      <c r="L20" t="str">
+        <v/>
+      </c>
+      <c r="M20" t="str">
+        <v/>
+      </c>
+      <c r="N20" t="str">
+        <v/>
+      </c>
+      <c r="O20" t="str">
+        <v/>
+      </c>
+      <c r="P20" t="str">
+        <v/>
+      </c>
+      <c r="Q20" t="str">
+        <v/>
+      </c>
+      <c r="R20" t="str">
+        <v/>
+      </c>
+      <c r="S20" t="str">
+        <v/>
+      </c>
+      <c r="T20" t="str">
+        <v/>
+      </c>
+      <c r="U20" t="str">
+        <v/>
+      </c>
+      <c r="V20" t="str">
+        <v/>
+      </c>
+      <c r="W20" t="str">
+        <v/>
+      </c>
+      <c r="X20" t="str">
+        <v/>
+      </c>
+      <c r="Y20" t="str">
+        <v/>
+      </c>
     </row>
     <row r="21">
+      <c r="A21" t="str">
+        <v/>
+      </c>
       <c r="B21" t="str">
-        <v>Approved by:</v>
+        <v>Head of School,</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Assistant Head of School (Academic),</v>
+      </c>
+      <c r="D21" t="str">
+        <v/>
+      </c>
+      <c r="E21" t="str">
+        <v/>
+      </c>
+      <c r="F21" t="str">
+        <v/>
+      </c>
+      <c r="G21" t="str">
+        <v/>
+      </c>
+      <c r="H21" t="str">
+        <v/>
+      </c>
+      <c r="I21" t="str">
+        <v/>
+      </c>
+      <c r="J21" t="str">
+        <v/>
+      </c>
+      <c r="K21" t="str">
+        <v/>
+      </c>
+      <c r="L21" t="str">
+        <v/>
+      </c>
+      <c r="M21" t="str">
+        <v/>
+      </c>
+      <c r="N21" t="str">
+        <v/>
+      </c>
+      <c r="O21" t="str">
+        <v/>
+      </c>
+      <c r="P21" t="str">
+        <v/>
+      </c>
+      <c r="Q21" t="str">
+        <v/>
+      </c>
+      <c r="R21" t="str">
+        <v/>
+      </c>
+      <c r="S21" t="str">
+        <v/>
+      </c>
+      <c r="T21" t="str">
+        <v/>
+      </c>
+      <c r="U21" t="str">
+        <v/>
+      </c>
+      <c r="V21" t="str">
+        <v/>
+      </c>
+      <c r="W21" t="str">
+        <v/>
+      </c>
+      <c r="X21" t="str">
+        <v/>
+      </c>
+      <c r="Y21" t="str">
+        <v/>
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="str">
+        <v/>
+      </c>
       <c r="B22" t="str">
-        <v>Head of School,</v>
+        <v>Iyus Nurbaeti, M.Pd</v>
       </c>
       <c r="C22" t="str">
-        <v>Assistant Head of School (Academic),</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" t="str">
-        <v>Iyus Nurbaeti, M.Pd</v>
-      </c>
-      <c r="C28" t="str">
         <v>Dewi Widyastuti, S.ST</v>
       </c>
+      <c r="D22" t="str">
+        <v/>
+      </c>
+      <c r="E22" t="str">
+        <v/>
+      </c>
+      <c r="F22" t="str">
+        <v/>
+      </c>
+      <c r="G22" t="str">
+        <v/>
+      </c>
+      <c r="H22" t="str">
+        <v/>
+      </c>
+      <c r="I22" t="str">
+        <v/>
+      </c>
+      <c r="J22" t="str">
+        <v/>
+      </c>
+      <c r="K22" t="str">
+        <v/>
+      </c>
+      <c r="L22" t="str">
+        <v/>
+      </c>
+      <c r="M22" t="str">
+        <v/>
+      </c>
+      <c r="N22" t="str">
+        <v/>
+      </c>
+      <c r="O22" t="str">
+        <v/>
+      </c>
+      <c r="P22" t="str">
+        <v/>
+      </c>
+      <c r="Q22" t="str">
+        <v/>
+      </c>
+      <c r="R22" t="str">
+        <v/>
+      </c>
+      <c r="S22" t="str">
+        <v/>
+      </c>
+      <c r="T22" t="str">
+        <v/>
+      </c>
+      <c r="U22" t="str">
+        <v/>
+      </c>
+      <c r="V22" t="str">
+        <v/>
+      </c>
+      <c r="W22" t="str">
+        <v/>
+      </c>
+      <c r="X22" t="str">
+        <v/>
+      </c>
+      <c r="Y22" t="str">
+        <v/>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:Y1007"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:Y22"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y1007"/>
+  <dimension ref="A1:Y22"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2619,21 +3992,309 @@
       <c r="A1" t="str">
         <v>ALUR TUJUAN PEMBELAJARAN</v>
       </c>
+      <c r="B1" t="str">
+        <v/>
+      </c>
+      <c r="C1" t="str">
+        <v/>
+      </c>
+      <c r="D1" t="str">
+        <v/>
+      </c>
+      <c r="E1" t="str">
+        <v/>
+      </c>
+      <c r="F1" t="str">
+        <v/>
+      </c>
+      <c r="G1" t="str">
+        <v/>
+      </c>
+      <c r="H1" t="str">
+        <v/>
+      </c>
+      <c r="I1" t="str">
+        <v/>
+      </c>
+      <c r="J1" t="str">
+        <v/>
+      </c>
+      <c r="K1" t="str">
+        <v/>
+      </c>
+      <c r="L1" t="str">
+        <v/>
+      </c>
+      <c r="M1" t="str">
+        <v/>
+      </c>
+      <c r="N1" t="str">
+        <v/>
+      </c>
+      <c r="O1" t="str">
+        <v/>
+      </c>
+      <c r="P1" t="str">
+        <v/>
+      </c>
+      <c r="Q1" t="str">
+        <v/>
+      </c>
+      <c r="R1" t="str">
+        <v/>
+      </c>
+      <c r="S1" t="str">
+        <v/>
+      </c>
+      <c r="T1" t="str">
+        <v/>
+      </c>
+      <c r="U1" t="str">
+        <v/>
+      </c>
+      <c r="V1" t="str">
+        <v/>
+      </c>
+      <c r="W1" t="str">
+        <v/>
+      </c>
+      <c r="X1" t="str">
+        <v/>
+      </c>
+      <c r="Y1" t="str">
+        <v/>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
         <v>CITIZENSHIP</v>
       </c>
+      <c r="B2" t="str">
+        <v/>
+      </c>
+      <c r="C2" t="str">
+        <v/>
+      </c>
+      <c r="D2" t="str">
+        <v/>
+      </c>
+      <c r="E2" t="str">
+        <v/>
+      </c>
+      <c r="F2" t="str">
+        <v/>
+      </c>
+      <c r="G2" t="str">
+        <v/>
+      </c>
+      <c r="H2" t="str">
+        <v/>
+      </c>
+      <c r="I2" t="str">
+        <v/>
+      </c>
+      <c r="J2" t="str">
+        <v/>
+      </c>
+      <c r="K2" t="str">
+        <v/>
+      </c>
+      <c r="L2" t="str">
+        <v/>
+      </c>
+      <c r="M2" t="str">
+        <v/>
+      </c>
+      <c r="N2" t="str">
+        <v/>
+      </c>
+      <c r="O2" t="str">
+        <v/>
+      </c>
+      <c r="P2" t="str">
+        <v/>
+      </c>
+      <c r="Q2" t="str">
+        <v/>
+      </c>
+      <c r="R2" t="str">
+        <v/>
+      </c>
+      <c r="S2" t="str">
+        <v/>
+      </c>
+      <c r="T2" t="str">
+        <v/>
+      </c>
+      <c r="U2" t="str">
+        <v/>
+      </c>
+      <c r="V2" t="str">
+        <v/>
+      </c>
+      <c r="W2" t="str">
+        <v/>
+      </c>
+      <c r="X2" t="str">
+        <v/>
+      </c>
+      <c r="Y2" t="str">
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
         <v>FASE C</v>
       </c>
+      <c r="B3" t="str">
+        <v/>
+      </c>
+      <c r="C3" t="str">
+        <v/>
+      </c>
+      <c r="D3" t="str">
+        <v/>
+      </c>
+      <c r="E3" t="str">
+        <v/>
+      </c>
+      <c r="F3" t="str">
+        <v/>
+      </c>
+      <c r="G3" t="str">
+        <v/>
+      </c>
+      <c r="H3" t="str">
+        <v/>
+      </c>
+      <c r="I3" t="str">
+        <v/>
+      </c>
+      <c r="J3" t="str">
+        <v/>
+      </c>
+      <c r="K3" t="str">
+        <v/>
+      </c>
+      <c r="L3" t="str">
+        <v/>
+      </c>
+      <c r="M3" t="str">
+        <v/>
+      </c>
+      <c r="N3" t="str">
+        <v/>
+      </c>
+      <c r="O3" t="str">
+        <v/>
+      </c>
+      <c r="P3" t="str">
+        <v/>
+      </c>
+      <c r="Q3" t="str">
+        <v/>
+      </c>
+      <c r="R3" t="str">
+        <v/>
+      </c>
+      <c r="S3" t="str">
+        <v/>
+      </c>
+      <c r="T3" t="str">
+        <v/>
+      </c>
+      <c r="U3" t="str">
+        <v/>
+      </c>
+      <c r="V3" t="str">
+        <v/>
+      </c>
+      <c r="W3" t="str">
+        <v/>
+      </c>
+      <c r="X3" t="str">
+        <v/>
+      </c>
+      <c r="Y3" t="str">
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
         <v>TAHUN AJARAN 2025/2026</v>
       </c>
+      <c r="B4" t="str">
+        <v/>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <v/>
+      </c>
+      <c r="H4" t="str">
+        <v/>
+      </c>
+      <c r="I4" t="str">
+        <v/>
+      </c>
+      <c r="J4" t="str">
+        <v/>
+      </c>
+      <c r="K4" t="str">
+        <v/>
+      </c>
+      <c r="L4" t="str">
+        <v/>
+      </c>
+      <c r="M4" t="str">
+        <v/>
+      </c>
+      <c r="N4" t="str">
+        <v/>
+      </c>
+      <c r="O4" t="str">
+        <v/>
+      </c>
+      <c r="P4" t="str">
+        <v/>
+      </c>
+      <c r="Q4" t="str">
+        <v/>
+      </c>
+      <c r="R4" t="str">
+        <v/>
+      </c>
+      <c r="S4" t="str">
+        <v/>
+      </c>
+      <c r="T4" t="str">
+        <v/>
+      </c>
+      <c r="U4" t="str">
+        <v/>
+      </c>
+      <c r="V4" t="str">
+        <v/>
+      </c>
+      <c r="W4" t="str">
+        <v/>
+      </c>
+      <c r="X4" t="str">
+        <v/>
+      </c>
+      <c r="Y4" t="str">
+        <v/>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -2656,6 +4317,60 @@
       </c>
       <c r="G5" t="str">
         <v>Semester</v>
+      </c>
+      <c r="H5" t="str">
+        <v/>
+      </c>
+      <c r="I5" t="str">
+        <v/>
+      </c>
+      <c r="J5" t="str">
+        <v/>
+      </c>
+      <c r="K5" t="str">
+        <v/>
+      </c>
+      <c r="L5" t="str">
+        <v/>
+      </c>
+      <c r="M5" t="str">
+        <v/>
+      </c>
+      <c r="N5" t="str">
+        <v/>
+      </c>
+      <c r="O5" t="str">
+        <v/>
+      </c>
+      <c r="P5" t="str">
+        <v/>
+      </c>
+      <c r="Q5" t="str">
+        <v/>
+      </c>
+      <c r="R5" t="str">
+        <v/>
+      </c>
+      <c r="S5" t="str">
+        <v/>
+      </c>
+      <c r="T5" t="str">
+        <v/>
+      </c>
+      <c r="U5" t="str">
+        <v/>
+      </c>
+      <c r="V5" t="str">
+        <v/>
+      </c>
+      <c r="W5" t="str">
+        <v/>
+      </c>
+      <c r="X5" t="str">
+        <v/>
+      </c>
+      <c r="Y5" t="str">
+        <v/>
       </c>
     </row>
     <row r="6" xml:space="preserve">
@@ -2684,8 +4399,68 @@
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6" t="str">
+        <v/>
+      </c>
+      <c r="I6" t="str">
+        <v/>
+      </c>
+      <c r="J6" t="str">
+        <v/>
+      </c>
+      <c r="K6" t="str">
+        <v/>
+      </c>
+      <c r="L6" t="str">
+        <v/>
+      </c>
+      <c r="M6" t="str">
+        <v/>
+      </c>
+      <c r="N6" t="str">
+        <v/>
+      </c>
+      <c r="O6" t="str">
+        <v/>
+      </c>
+      <c r="P6" t="str">
+        <v/>
+      </c>
+      <c r="Q6" t="str">
+        <v/>
+      </c>
+      <c r="R6" t="str">
+        <v/>
+      </c>
+      <c r="S6" t="str">
+        <v/>
+      </c>
+      <c r="T6" t="str">
+        <v/>
+      </c>
+      <c r="U6" t="str">
+        <v/>
+      </c>
+      <c r="V6" t="str">
+        <v/>
+      </c>
+      <c r="W6" t="str">
+        <v/>
+      </c>
+      <c r="X6" t="str">
+        <v/>
+      </c>
+      <c r="Y6" t="str">
+        <v/>
+      </c>
     </row>
     <row r="7" xml:space="preserve">
+      <c r="A7" t="str">
+        <v/>
+      </c>
+      <c r="B7" t="str">
+        <v/>
+      </c>
       <c r="C7" t="str">
         <v>Peserta didik meneladani sikap para perumus Pancasila dan menerapkan di lingkungan masyarakat.</v>
       </c>
@@ -2696,8 +4471,77 @@
 4. Peserta didik menunjukkan sikap menghargai perbedaan suku, bahasa, agama, dan budaya dalam interaksi di lingkungan masyarakat._x000d_
 5. Peserta didik berpartisipasi aktif dalam kegiatan lingkungan yang mencerminkan persatuan dan kesatuan, seperti kerja bakti, musyawarah warga, dan peringatan hari besar nasional.</v>
       </c>
+      <c r="E7" t="str">
+        <v>Pancasila</v>
+      </c>
+      <c r="F7" t="str">
+        <v>5</v>
+      </c>
+      <c r="G7" t="str">
+        <v>1</v>
+      </c>
+      <c r="H7" t="str">
+        <v/>
+      </c>
+      <c r="I7" t="str">
+        <v/>
+      </c>
+      <c r="J7" t="str">
+        <v/>
+      </c>
+      <c r="K7" t="str">
+        <v/>
+      </c>
+      <c r="L7" t="str">
+        <v/>
+      </c>
+      <c r="M7" t="str">
+        <v/>
+      </c>
+      <c r="N7" t="str">
+        <v/>
+      </c>
+      <c r="O7" t="str">
+        <v/>
+      </c>
+      <c r="P7" t="str">
+        <v/>
+      </c>
+      <c r="Q7" t="str">
+        <v/>
+      </c>
+      <c r="R7" t="str">
+        <v/>
+      </c>
+      <c r="S7" t="str">
+        <v/>
+      </c>
+      <c r="T7" t="str">
+        <v/>
+      </c>
+      <c r="U7" t="str">
+        <v/>
+      </c>
+      <c r="V7" t="str">
+        <v/>
+      </c>
+      <c r="W7" t="str">
+        <v/>
+      </c>
+      <c r="X7" t="str">
+        <v/>
+      </c>
+      <c r="Y7" t="str">
+        <v/>
+      </c>
     </row>
     <row r="8" xml:space="preserve">
+      <c r="A8" t="str">
+        <v/>
+      </c>
+      <c r="B8" t="str">
+        <v/>
+      </c>
       <c r="C8" t="str">
         <v>Peserta didik menghubungkan sila-sila dalam Pancasila sebagai suatu kesatuan yang utuh.</v>
       </c>
@@ -2708,8 +4552,77 @@
 4. Peserta didik menyadari bahwa mengamalkan satu sila berarti juga mendukung pelaksanaan sila lainnya._x000d_
 5. Peserta didik menunjukkan sikap konsisten dalam menerapkan nilai-nilai seluruh sila Pancasila secara bersamaan dalam kehidupan sehari-hari.</v>
       </c>
+      <c r="E8" t="str">
+        <v>Pancasila</v>
+      </c>
+      <c r="F8" t="str">
+        <v>5</v>
+      </c>
+      <c r="G8" t="str">
+        <v>1</v>
+      </c>
+      <c r="H8" t="str">
+        <v/>
+      </c>
+      <c r="I8" t="str">
+        <v/>
+      </c>
+      <c r="J8" t="str">
+        <v/>
+      </c>
+      <c r="K8" t="str">
+        <v/>
+      </c>
+      <c r="L8" t="str">
+        <v/>
+      </c>
+      <c r="M8" t="str">
+        <v/>
+      </c>
+      <c r="N8" t="str">
+        <v/>
+      </c>
+      <c r="O8" t="str">
+        <v/>
+      </c>
+      <c r="P8" t="str">
+        <v/>
+      </c>
+      <c r="Q8" t="str">
+        <v/>
+      </c>
+      <c r="R8" t="str">
+        <v/>
+      </c>
+      <c r="S8" t="str">
+        <v/>
+      </c>
+      <c r="T8" t="str">
+        <v/>
+      </c>
+      <c r="U8" t="str">
+        <v/>
+      </c>
+      <c r="V8" t="str">
+        <v/>
+      </c>
+      <c r="W8" t="str">
+        <v/>
+      </c>
+      <c r="X8" t="str">
+        <v/>
+      </c>
+      <c r="Y8" t="str">
+        <v/>
+      </c>
     </row>
     <row r="9" xml:space="preserve">
+      <c r="A9" t="str">
+        <v/>
+      </c>
+      <c r="B9" t="str">
+        <v/>
+      </c>
       <c r="C9" t="str">
         <v>Peserta didik menguraikan makna nilai-nilai Pancasila sebagai dasar negara, pandangan hidup, dan ideologi bangsa dan negara.</v>
       </c>
@@ -2729,6 +4642,60 @@
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9" t="str">
+        <v/>
+      </c>
+      <c r="I9" t="str">
+        <v/>
+      </c>
+      <c r="J9" t="str">
+        <v/>
+      </c>
+      <c r="K9" t="str">
+        <v/>
+      </c>
+      <c r="L9" t="str">
+        <v/>
+      </c>
+      <c r="M9" t="str">
+        <v/>
+      </c>
+      <c r="N9" t="str">
+        <v/>
+      </c>
+      <c r="O9" t="str">
+        <v/>
+      </c>
+      <c r="P9" t="str">
+        <v/>
+      </c>
+      <c r="Q9" t="str">
+        <v/>
+      </c>
+      <c r="R9" t="str">
+        <v/>
+      </c>
+      <c r="S9" t="str">
+        <v/>
+      </c>
+      <c r="T9" t="str">
+        <v/>
+      </c>
+      <c r="U9" t="str">
+        <v/>
+      </c>
+      <c r="V9" t="str">
+        <v/>
+      </c>
+      <c r="W9" t="str">
+        <v/>
+      </c>
+      <c r="X9" t="str">
+        <v/>
+      </c>
+      <c r="Y9" t="str">
+        <v/>
+      </c>
     </row>
     <row r="10" xml:space="preserve">
       <c r="A10" t="str">
@@ -2756,8 +4723,68 @@
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10" t="str">
+        <v/>
+      </c>
+      <c r="I10" t="str">
+        <v/>
+      </c>
+      <c r="J10" t="str">
+        <v/>
+      </c>
+      <c r="K10" t="str">
+        <v/>
+      </c>
+      <c r="L10" t="str">
+        <v/>
+      </c>
+      <c r="M10" t="str">
+        <v/>
+      </c>
+      <c r="N10" t="str">
+        <v/>
+      </c>
+      <c r="O10" t="str">
+        <v/>
+      </c>
+      <c r="P10" t="str">
+        <v/>
+      </c>
+      <c r="Q10" t="str">
+        <v/>
+      </c>
+      <c r="R10" t="str">
+        <v/>
+      </c>
+      <c r="S10" t="str">
+        <v/>
+      </c>
+      <c r="T10" t="str">
+        <v/>
+      </c>
+      <c r="U10" t="str">
+        <v/>
+      </c>
+      <c r="V10" t="str">
+        <v/>
+      </c>
+      <c r="W10" t="str">
+        <v/>
+      </c>
+      <c r="X10" t="str">
+        <v/>
+      </c>
+      <c r="Y10" t="str">
+        <v/>
+      </c>
     </row>
     <row r="11" xml:space="preserve">
+      <c r="A11" t="str">
+        <v/>
+      </c>
+      <c r="B11" t="str">
+        <v/>
+      </c>
       <c r="C11" t="str">
         <v>Peserta didik menyajikan dan mempraktikan hasil identifikasi bentuk-bentuk norma, hak, dan kewajiban dalam kedudukannya sebagai warga sekolah.</v>
       </c>
@@ -2768,8 +4795,77 @@
 4. Peserta didik menyajikan hasil identifikasi norma, hak, dan kewajiban tersebut secara lisan atau tertulis di kelas._x000d_
 5. Peserta didik mempraktikkan perilaku yang sesuai dengan norma, menjalankan kewajiban, dan menggunakan haknya secara bertanggung jawab di lingkungan sekolah.</v>
       </c>
+      <c r="E11" t="str">
+        <v>Norma, hak, dan kewajiban</v>
+      </c>
+      <c r="F11" t="str">
+        <v>5</v>
+      </c>
+      <c r="G11" t="str">
+        <v>1</v>
+      </c>
+      <c r="H11" t="str">
+        <v/>
+      </c>
+      <c r="I11" t="str">
+        <v/>
+      </c>
+      <c r="J11" t="str">
+        <v/>
+      </c>
+      <c r="K11" t="str">
+        <v/>
+      </c>
+      <c r="L11" t="str">
+        <v/>
+      </c>
+      <c r="M11" t="str">
+        <v/>
+      </c>
+      <c r="N11" t="str">
+        <v/>
+      </c>
+      <c r="O11" t="str">
+        <v/>
+      </c>
+      <c r="P11" t="str">
+        <v/>
+      </c>
+      <c r="Q11" t="str">
+        <v/>
+      </c>
+      <c r="R11" t="str">
+        <v/>
+      </c>
+      <c r="S11" t="str">
+        <v/>
+      </c>
+      <c r="T11" t="str">
+        <v/>
+      </c>
+      <c r="U11" t="str">
+        <v/>
+      </c>
+      <c r="V11" t="str">
+        <v/>
+      </c>
+      <c r="W11" t="str">
+        <v/>
+      </c>
+      <c r="X11" t="str">
+        <v/>
+      </c>
+      <c r="Y11" t="str">
+        <v/>
+      </c>
     </row>
     <row r="12" xml:space="preserve">
+      <c r="A12" t="str">
+        <v/>
+      </c>
+      <c r="B12" t="str">
+        <v/>
+      </c>
       <c r="C12" t="str">
         <v>Peserta didik menyajikan dan mempraktikan hasil identifikasi bentuk-bentuk norma, hak, dan kewajiban dalam kedudukannya sebagai warga negara.</v>
       </c>
@@ -2789,8 +4885,68 @@
       <c r="G12">
         <v>2</v>
       </c>
+      <c r="H12" t="str">
+        <v/>
+      </c>
+      <c r="I12" t="str">
+        <v/>
+      </c>
+      <c r="J12" t="str">
+        <v/>
+      </c>
+      <c r="K12" t="str">
+        <v/>
+      </c>
+      <c r="L12" t="str">
+        <v/>
+      </c>
+      <c r="M12" t="str">
+        <v/>
+      </c>
+      <c r="N12" t="str">
+        <v/>
+      </c>
+      <c r="O12" t="str">
+        <v/>
+      </c>
+      <c r="P12" t="str">
+        <v/>
+      </c>
+      <c r="Q12" t="str">
+        <v/>
+      </c>
+      <c r="R12" t="str">
+        <v/>
+      </c>
+      <c r="S12" t="str">
+        <v/>
+      </c>
+      <c r="T12" t="str">
+        <v/>
+      </c>
+      <c r="U12" t="str">
+        <v/>
+      </c>
+      <c r="V12" t="str">
+        <v/>
+      </c>
+      <c r="W12" t="str">
+        <v/>
+      </c>
+      <c r="X12" t="str">
+        <v/>
+      </c>
+      <c r="Y12" t="str">
+        <v/>
+      </c>
     </row>
     <row r="13" xml:space="preserve">
+      <c r="A13" t="str">
+        <v/>
+      </c>
+      <c r="B13" t="str">
+        <v/>
+      </c>
       <c r="C13" t="str">
         <v>Peserta didik melaksanakan praktik musyawarah untuk membuat kesepakatan dan aturan bersama, serta menerapkannya dalam lingkungan keluarga.</v>
       </c>
@@ -2810,8 +4966,68 @@
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13" t="str">
+        <v/>
+      </c>
+      <c r="I13" t="str">
+        <v/>
+      </c>
+      <c r="J13" t="str">
+        <v/>
+      </c>
+      <c r="K13" t="str">
+        <v/>
+      </c>
+      <c r="L13" t="str">
+        <v/>
+      </c>
+      <c r="M13" t="str">
+        <v/>
+      </c>
+      <c r="N13" t="str">
+        <v/>
+      </c>
+      <c r="O13" t="str">
+        <v/>
+      </c>
+      <c r="P13" t="str">
+        <v/>
+      </c>
+      <c r="Q13" t="str">
+        <v/>
+      </c>
+      <c r="R13" t="str">
+        <v/>
+      </c>
+      <c r="S13" t="str">
+        <v/>
+      </c>
+      <c r="T13" t="str">
+        <v/>
+      </c>
+      <c r="U13" t="str">
+        <v/>
+      </c>
+      <c r="V13" t="str">
+        <v/>
+      </c>
+      <c r="W13" t="str">
+        <v/>
+      </c>
+      <c r="X13" t="str">
+        <v/>
+      </c>
+      <c r="Y13" t="str">
+        <v/>
+      </c>
     </row>
     <row r="14" xml:space="preserve">
+      <c r="A14" t="str">
+        <v/>
+      </c>
+      <c r="B14" t="str">
+        <v/>
+      </c>
       <c r="C14" t="str">
         <v>Peserta didik melaksanakan praktik musyawarah untuk membuat kesepakatan dan aturan bersama, serta menerapkannya dalam lingkungan sekolah.</v>
       </c>
@@ -2822,6 +5038,69 @@
 4. Peserta didik ikut menyepakati aturan atau keputusan yang dihasilkan dari musyawarah kelas atau sekolah._x000d_
 5. Peserta didik melaksanakan hasil kesepakatan atau aturan sekolah yang telah dibuat bersama secara konsisten dan bertanggung jawab.</v>
       </c>
+      <c r="E14" t="str">
+        <v>Musyawarah</v>
+      </c>
+      <c r="F14" t="str">
+        <v>5</v>
+      </c>
+      <c r="G14" t="str">
+        <v>1</v>
+      </c>
+      <c r="H14" t="str">
+        <v/>
+      </c>
+      <c r="I14" t="str">
+        <v/>
+      </c>
+      <c r="J14" t="str">
+        <v/>
+      </c>
+      <c r="K14" t="str">
+        <v/>
+      </c>
+      <c r="L14" t="str">
+        <v/>
+      </c>
+      <c r="M14" t="str">
+        <v/>
+      </c>
+      <c r="N14" t="str">
+        <v/>
+      </c>
+      <c r="O14" t="str">
+        <v/>
+      </c>
+      <c r="P14" t="str">
+        <v/>
+      </c>
+      <c r="Q14" t="str">
+        <v/>
+      </c>
+      <c r="R14" t="str">
+        <v/>
+      </c>
+      <c r="S14" t="str">
+        <v/>
+      </c>
+      <c r="T14" t="str">
+        <v/>
+      </c>
+      <c r="U14" t="str">
+        <v/>
+      </c>
+      <c r="V14" t="str">
+        <v/>
+      </c>
+      <c r="W14" t="str">
+        <v/>
+      </c>
+      <c r="X14" t="str">
+        <v/>
+      </c>
+      <c r="Y14" t="str">
+        <v/>
+      </c>
     </row>
     <row r="15" xml:space="preserve">
       <c r="A15" t="str">
@@ -2850,8 +5129,68 @@
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15" t="str">
+        <v/>
+      </c>
+      <c r="I15" t="str">
+        <v/>
+      </c>
+      <c r="J15" t="str">
+        <v/>
+      </c>
+      <c r="K15" t="str">
+        <v/>
+      </c>
+      <c r="L15" t="str">
+        <v/>
+      </c>
+      <c r="M15" t="str">
+        <v/>
+      </c>
+      <c r="N15" t="str">
+        <v/>
+      </c>
+      <c r="O15" t="str">
+        <v/>
+      </c>
+      <c r="P15" t="str">
+        <v/>
+      </c>
+      <c r="Q15" t="str">
+        <v/>
+      </c>
+      <c r="R15" t="str">
+        <v/>
+      </c>
+      <c r="S15" t="str">
+        <v/>
+      </c>
+      <c r="T15" t="str">
+        <v/>
+      </c>
+      <c r="U15" t="str">
+        <v/>
+      </c>
+      <c r="V15" t="str">
+        <v/>
+      </c>
+      <c r="W15" t="str">
+        <v/>
+      </c>
+      <c r="X15" t="str">
+        <v/>
+      </c>
+      <c r="Y15" t="str">
+        <v/>
+      </c>
     </row>
     <row r="16" xml:space="preserve">
+      <c r="A16" t="str">
+        <v/>
+      </c>
+      <c r="B16" t="str">
+        <v/>
+      </c>
       <c r="C16" t="str">
         <v>Peserta didik menyajikan hasil identifikasi sikap menghormati, menjaga, dan melestarikan keberagaman budaya dalam bingkai Bhinneka Tunggal Ika di lingkungan sekolah.</v>
       </c>
@@ -2862,8 +5201,77 @@
 4. Peserta didik melestarikan keberagaman budaya dengan berpartisipasi dalam kegiatan bertema budaya, seperti pentas seni atau peringatan hari besar nasional._x000d_
 5. Peserta didik menyajikan hasil identifikasi sikap tersebut secara lisan, tertulis, atau melalui media kreatif.1. </v>
       </c>
+      <c r="E16" t="str">
+        <v xml:space="preserve"> Keragaman Budaya</v>
+      </c>
+      <c r="F16" t="str">
+        <v>6</v>
+      </c>
+      <c r="G16" t="str">
+        <v>1</v>
+      </c>
+      <c r="H16" t="str">
+        <v/>
+      </c>
+      <c r="I16" t="str">
+        <v/>
+      </c>
+      <c r="J16" t="str">
+        <v/>
+      </c>
+      <c r="K16" t="str">
+        <v/>
+      </c>
+      <c r="L16" t="str">
+        <v/>
+      </c>
+      <c r="M16" t="str">
+        <v/>
+      </c>
+      <c r="N16" t="str">
+        <v/>
+      </c>
+      <c r="O16" t="str">
+        <v/>
+      </c>
+      <c r="P16" t="str">
+        <v/>
+      </c>
+      <c r="Q16" t="str">
+        <v/>
+      </c>
+      <c r="R16" t="str">
+        <v/>
+      </c>
+      <c r="S16" t="str">
+        <v/>
+      </c>
+      <c r="T16" t="str">
+        <v/>
+      </c>
+      <c r="U16" t="str">
+        <v/>
+      </c>
+      <c r="V16" t="str">
+        <v/>
+      </c>
+      <c r="W16" t="str">
+        <v/>
+      </c>
+      <c r="X16" t="str">
+        <v/>
+      </c>
+      <c r="Y16" t="str">
+        <v/>
+      </c>
     </row>
     <row r="17" xml:space="preserve">
+      <c r="A17" t="str">
+        <v/>
+      </c>
+      <c r="B17" t="str">
+        <v/>
+      </c>
       <c r="C17" t="str">
         <v>Peserta didik menyajikan hasil identifikasi sikap menghormati, menjaga, dan melestarikan keberagaman budaya dalam bingkai Bhinneka Tunggal Ika di lingkungan masyarakat.</v>
       </c>
@@ -2874,6 +5282,69 @@
 4. Peserta didik melestarikan keberagaman budaya dengan berpartisipasi dalam acara budaya, festival daerah, atau gotong royong saat perayaan adat._x000d_
 5. Peserta didik menyajikan hasil identifikasi sikap tersebut secara lisan, tertulis, atau melalui karya kreatif.</v>
       </c>
+      <c r="E17" t="str">
+        <v xml:space="preserve"> Keragaman Budaya</v>
+      </c>
+      <c r="F17" t="str">
+        <v>6</v>
+      </c>
+      <c r="G17" t="str">
+        <v>1</v>
+      </c>
+      <c r="H17" t="str">
+        <v/>
+      </c>
+      <c r="I17" t="str">
+        <v/>
+      </c>
+      <c r="J17" t="str">
+        <v/>
+      </c>
+      <c r="K17" t="str">
+        <v/>
+      </c>
+      <c r="L17" t="str">
+        <v/>
+      </c>
+      <c r="M17" t="str">
+        <v/>
+      </c>
+      <c r="N17" t="str">
+        <v/>
+      </c>
+      <c r="O17" t="str">
+        <v/>
+      </c>
+      <c r="P17" t="str">
+        <v/>
+      </c>
+      <c r="Q17" t="str">
+        <v/>
+      </c>
+      <c r="R17" t="str">
+        <v/>
+      </c>
+      <c r="S17" t="str">
+        <v/>
+      </c>
+      <c r="T17" t="str">
+        <v/>
+      </c>
+      <c r="U17" t="str">
+        <v/>
+      </c>
+      <c r="V17" t="str">
+        <v/>
+      </c>
+      <c r="W17" t="str">
+        <v/>
+      </c>
+      <c r="X17" t="str">
+        <v/>
+      </c>
+      <c r="Y17" t="str">
+        <v/>
+      </c>
     </row>
     <row r="18" xml:space="preserve">
       <c r="A18" t="str">
@@ -2901,8 +5372,68 @@
       <c r="G18">
         <v>2</v>
       </c>
+      <c r="H18" t="str">
+        <v/>
+      </c>
+      <c r="I18" t="str">
+        <v/>
+      </c>
+      <c r="J18" t="str">
+        <v/>
+      </c>
+      <c r="K18" t="str">
+        <v/>
+      </c>
+      <c r="L18" t="str">
+        <v/>
+      </c>
+      <c r="M18" t="str">
+        <v/>
+      </c>
+      <c r="N18" t="str">
+        <v/>
+      </c>
+      <c r="O18" t="str">
+        <v/>
+      </c>
+      <c r="P18" t="str">
+        <v/>
+      </c>
+      <c r="Q18" t="str">
+        <v/>
+      </c>
+      <c r="R18" t="str">
+        <v/>
+      </c>
+      <c r="S18" t="str">
+        <v/>
+      </c>
+      <c r="T18" t="str">
+        <v/>
+      </c>
+      <c r="U18" t="str">
+        <v/>
+      </c>
+      <c r="V18" t="str">
+        <v/>
+      </c>
+      <c r="W18" t="str">
+        <v/>
+      </c>
+      <c r="X18" t="str">
+        <v/>
+      </c>
+      <c r="Y18" t="str">
+        <v/>
+      </c>
     </row>
     <row r="19" xml:space="preserve">
+      <c r="A19" t="str">
+        <v/>
+      </c>
+      <c r="B19" t="str">
+        <v/>
+      </c>
       <c r="C19" t="str">
         <v>Peserta didik menunjukkan perilaku gotong royong untuk menjaga persatuan di lingkungan sekolah dan sekitar sebagai wujud bela negara.</v>
       </c>
@@ -2922,60 +5453,295 @@
       <c r="G19">
         <v>2</v>
       </c>
+      <c r="H19" t="str">
+        <v/>
+      </c>
+      <c r="I19" t="str">
+        <v/>
+      </c>
+      <c r="J19" t="str">
+        <v/>
+      </c>
+      <c r="K19" t="str">
+        <v/>
+      </c>
+      <c r="L19" t="str">
+        <v/>
+      </c>
+      <c r="M19" t="str">
+        <v/>
+      </c>
+      <c r="N19" t="str">
+        <v/>
+      </c>
+      <c r="O19" t="str">
+        <v/>
+      </c>
+      <c r="P19" t="str">
+        <v/>
+      </c>
+      <c r="Q19" t="str">
+        <v/>
+      </c>
+      <c r="R19" t="str">
+        <v/>
+      </c>
+      <c r="S19" t="str">
+        <v/>
+      </c>
+      <c r="T19" t="str">
+        <v/>
+      </c>
+      <c r="U19" t="str">
+        <v/>
+      </c>
+      <c r="V19" t="str">
+        <v/>
+      </c>
+      <c r="W19" t="str">
+        <v/>
+      </c>
+      <c r="X19" t="str">
+        <v/>
+      </c>
+      <c r="Y19" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v/>
+      </c>
+      <c r="B20" t="str">
+        <v>Approved by:</v>
+      </c>
+      <c r="C20" t="str">
+        <v/>
+      </c>
+      <c r="D20" t="str">
+        <v/>
+      </c>
+      <c r="E20" t="str">
+        <v/>
+      </c>
+      <c r="F20" t="str">
+        <v/>
+      </c>
+      <c r="G20" t="str">
+        <v/>
+      </c>
+      <c r="H20" t="str">
+        <v/>
+      </c>
+      <c r="I20" t="str">
+        <v/>
+      </c>
+      <c r="J20" t="str">
+        <v/>
+      </c>
+      <c r="K20" t="str">
+        <v/>
+      </c>
+      <c r="L20" t="str">
+        <v/>
+      </c>
+      <c r="M20" t="str">
+        <v/>
+      </c>
+      <c r="N20" t="str">
+        <v/>
+      </c>
+      <c r="O20" t="str">
+        <v/>
+      </c>
+      <c r="P20" t="str">
+        <v/>
+      </c>
+      <c r="Q20" t="str">
+        <v/>
+      </c>
+      <c r="R20" t="str">
+        <v/>
+      </c>
+      <c r="S20" t="str">
+        <v/>
+      </c>
+      <c r="T20" t="str">
+        <v/>
+      </c>
+      <c r="U20" t="str">
+        <v/>
+      </c>
+      <c r="V20" t="str">
+        <v/>
+      </c>
+      <c r="W20" t="str">
+        <v/>
+      </c>
+      <c r="X20" t="str">
+        <v/>
+      </c>
+      <c r="Y20" t="str">
+        <v/>
+      </c>
     </row>
     <row r="21">
+      <c r="A21" t="str">
+        <v/>
+      </c>
       <c r="B21" t="str">
-        <v>Approved by:</v>
+        <v>Head of School,</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Assistant Head of School (Academic),</v>
+      </c>
+      <c r="D21" t="str">
+        <v/>
+      </c>
+      <c r="E21" t="str">
+        <v/>
+      </c>
+      <c r="F21" t="str">
+        <v/>
+      </c>
+      <c r="G21" t="str">
+        <v/>
+      </c>
+      <c r="H21" t="str">
+        <v/>
+      </c>
+      <c r="I21" t="str">
+        <v/>
+      </c>
+      <c r="J21" t="str">
+        <v/>
+      </c>
+      <c r="K21" t="str">
+        <v/>
+      </c>
+      <c r="L21" t="str">
+        <v/>
+      </c>
+      <c r="M21" t="str">
+        <v/>
+      </c>
+      <c r="N21" t="str">
+        <v/>
+      </c>
+      <c r="O21" t="str">
+        <v/>
+      </c>
+      <c r="P21" t="str">
+        <v/>
+      </c>
+      <c r="Q21" t="str">
+        <v/>
+      </c>
+      <c r="R21" t="str">
+        <v/>
+      </c>
+      <c r="S21" t="str">
+        <v/>
+      </c>
+      <c r="T21" t="str">
+        <v/>
+      </c>
+      <c r="U21" t="str">
+        <v/>
+      </c>
+      <c r="V21" t="str">
+        <v/>
+      </c>
+      <c r="W21" t="str">
+        <v/>
+      </c>
+      <c r="X21" t="str">
+        <v/>
+      </c>
+      <c r="Y21" t="str">
+        <v/>
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="str">
+        <v/>
+      </c>
       <c r="B22" t="str">
-        <v>Head of School,</v>
+        <v>Iyus Nurbaeti, M.Pd</v>
       </c>
       <c r="C22" t="str">
-        <v>Assistant Head of School (Academic),</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" t="str">
-        <v>Iyus Nurbaeti, M.Pd</v>
-      </c>
-      <c r="C28" t="str">
         <v>Dewi Widyastuti, S.ST</v>
       </c>
+      <c r="D22" t="str">
+        <v/>
+      </c>
+      <c r="E22" t="str">
+        <v/>
+      </c>
+      <c r="F22" t="str">
+        <v/>
+      </c>
+      <c r="G22" t="str">
+        <v/>
+      </c>
+      <c r="H22" t="str">
+        <v/>
+      </c>
+      <c r="I22" t="str">
+        <v/>
+      </c>
+      <c r="J22" t="str">
+        <v/>
+      </c>
+      <c r="K22" t="str">
+        <v/>
+      </c>
+      <c r="L22" t="str">
+        <v/>
+      </c>
+      <c r="M22" t="str">
+        <v/>
+      </c>
+      <c r="N22" t="str">
+        <v/>
+      </c>
+      <c r="O22" t="str">
+        <v/>
+      </c>
+      <c r="P22" t="str">
+        <v/>
+      </c>
+      <c r="Q22" t="str">
+        <v/>
+      </c>
+      <c r="R22" t="str">
+        <v/>
+      </c>
+      <c r="S22" t="str">
+        <v/>
+      </c>
+      <c r="T22" t="str">
+        <v/>
+      </c>
+      <c r="U22" t="str">
+        <v/>
+      </c>
+      <c r="V22" t="str">
+        <v/>
+      </c>
+      <c r="W22" t="str">
+        <v/>
+      </c>
+      <c r="X22" t="str">
+        <v/>
+      </c>
+      <c r="Y22" t="str">
+        <v/>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:Y1007"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:Y22"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend/uploads/cp_citizenship_1760291279356.xlsx
+++ b/backend/uploads/cp_citizenship_1760291279356.xlsx
@@ -868,8 +868,8 @@
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6">
-        <v>1</v>
+      <c r="G6" t="str">
+        <v>1-2</v>
       </c>
       <c r="H6" t="str">
         <v/>
